--- a/api/org-data/suggest/미래에셋 추천 포트폴리오(해외).xlsx
+++ b/api/org-data/suggest/미래에셋 추천 포트폴리오(해외).xlsx
@@ -712,13 +712,14 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="8" max="8" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1057,7 +1058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
